--- a/Documents/Registers_addresses.xlsx
+++ b/Documents/Registers_addresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cc\Desktop\DC_25_DX_Master\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D3A8B-D990-4DB2-A4C9-0A31643D1BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7276E-87FF-4E0F-AE2C-2102148ED329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{06986294-87FA-494B-86E4-309067528091}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="251">
   <si>
     <t>1:_40012</t>
   </si>
@@ -772,6 +772,12 @@
   </si>
   <si>
     <t>_1_Compressor 1 ON</t>
+  </si>
+  <si>
+    <t>_1_Solenoid Valve</t>
+  </si>
+  <si>
+    <t>_1_Condensor Fan</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B177B441-5C42-41E5-B9BB-1625070D968D}">
   <dimension ref="A3:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1533,7 @@
         <v>134</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="7"/>
@@ -1560,7 +1566,7 @@
         <v>135</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="7"/>
@@ -1586,7 +1592,7 @@
         <v>136</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="7"/>
@@ -1612,7 +1618,7 @@
         <v>137</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="7"/>
@@ -1645,7 +1651,7 @@
         <v>138</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="7"/>
@@ -1678,7 +1684,7 @@
         <v>139</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="T12" s="1"/>
       <c r="U12" s="7"/>
@@ -1711,7 +1717,7 @@
         <v>140</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="7"/>
@@ -1744,7 +1750,7 @@
         <v>141</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="7"/>
@@ -1774,7 +1780,7 @@
         <v>142</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="T15" s="1"/>
       <c r="U15" s="7"/>
@@ -1804,7 +1810,7 @@
         <v>143</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="7"/>
@@ -1834,7 +1840,7 @@
         <v>144</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="7"/>
@@ -1863,9 +1869,7 @@
       <c r="R18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="7"/>
     </row>
@@ -1899,9 +1903,7 @@
       <c r="R19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>245</v>
-      </c>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="7"/>
     </row>
@@ -1935,9 +1937,7 @@
       <c r="R20" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="7"/>
     </row>
@@ -1971,9 +1971,7 @@
       <c r="R21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="7"/>
     </row>
@@ -2005,9 +2003,6 @@
       <c r="R22" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="7"/>
     </row>
@@ -2137,7 +2132,9 @@
       <c r="R26" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="S26" s="1"/>
+      <c r="S26" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="T26" s="1"/>
       <c r="U26" s="7"/>
     </row>
@@ -2271,7 +2268,9 @@
       <c r="R30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="S30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="T30" s="1"/>
       <c r="U30" s="7"/>
     </row>
@@ -2303,7 +2302,9 @@
       <c r="R31" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="S31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="7"/>
     </row>
@@ -2335,7 +2336,9 @@
       <c r="R32" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="S32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="7"/>
     </row>
